--- a/BayesianFitForecast/curve-SEIR_plain_unrep_Hamed_LSQ-beta_0-0.5-kappa-1-rho-0.5-gamma-0.25-N-100000-M-1-dist1-0-factor1-5.xlsx
+++ b/BayesianFitForecast/curve-SEIR_plain_unrep_Hamed_LSQ-beta_0-0.5-kappa-1-rho-0.5-gamma-0.25-N-100000-M-1-dist1-0-factor1-5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gerardo/Dropbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamedkp\Desktop\toolbox\toolboxv18\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0140B7DE-B0A7-FF4B-A5D2-EECAF7F6BE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{101C89D8-D404-4B52-90DF-A795ACD51B53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11000" yWindow="4940" windowWidth="27640" windowHeight="16940"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="curve-SEIR_plain_unrep_Hamed_LS" sheetId="1" r:id="rId1"/>
@@ -25,13 +25,13 @@
     <t>days</t>
   </si>
   <si>
-    <t>cases</t>
+    <t>cases1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -885,16 +885,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -902,7 +902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0</v>
       </c>
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -918,7 +918,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -926,7 +926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -934,7 +934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -942,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -950,7 +950,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -966,7 +966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -982,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -990,7 +990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -998,7 +998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>808</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>1524</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -1550,7 +1550,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1558,7 +1558,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -1574,7 +1574,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -1582,7 +1582,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -1606,7 +1606,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -1614,7 +1614,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -1638,7 +1638,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -1646,7 +1646,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -1654,7 +1654,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -1662,7 +1662,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -1670,7 +1670,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -1694,7 +1694,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -1710,7 +1710,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -1726,7 +1726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -1742,7 +1742,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -1758,7 +1758,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -1766,7 +1766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -1782,7 +1782,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -1798,7 +1798,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -1814,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -1822,7 +1822,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -1854,7 +1854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
